--- a/pred_ohlcv/54_21/2019-10-16 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2258061.9794</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2221061.9794</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2221028.9794</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2178276.8311</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>495668.0106224876</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>411727.0632224876</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>419757.3295224876</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>324077.9113224876</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>253909.2479224876</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>253919.2479224876</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>273589.5791224876</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>265856.7921224876</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>299277.1261224876</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>375816.1066224876</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>220500.4007167924</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2664664.194113879</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3534102.275813879</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3508843.59071388</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3790270.34611388</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3496958.67231388</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3753130.80921388</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4056674.456674548</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4112158.297574548</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3674794.871274548</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>8474742.887970261</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>8353297.438470261</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>7788824.225770261</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7918075.370770261</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>8059208.343370261</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7674030.661270261</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>7518932.994370261</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7602486.501270261</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7581609.76727026</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7394421.384570261</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>8210454.291626227</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>8186632.715526227</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7674626.536026226</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>9088981.084426226</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>9088879.184426228</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>9093711.806426227</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>9125917.222926227</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>9180354.698926229</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>14669124.47643593</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>14669135.47643593</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>14663869.44983593</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>14882116.65493593</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>14882076.70493593</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>15191095.21443594</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>10543700.28986147</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>10543711.28986147</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>10449109.99096147</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>10449159.99096147</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>10447904.16446147</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>10303979.99706147</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>13490608.6682878</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>13479135.9747878</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>13453559.4309878</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>13452646.00058779</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>13147895.83818779</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>13179804.12868779</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>13126701.19248779</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>13166258.80338779</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>13403138.71898779</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>13401206.41958779</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>13407672.41958779</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>13407439.41958779</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>13442864.88036478</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>13215459.27926478</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>13077846.11596478</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>13177526.41516478</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>13123021.54846478</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>12656203.64226478</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 FAB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-534785.1385</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2258061.9794</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2221061.9794</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2221028.9794</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2178276.8311</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2178254.8311</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2338940.1679</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1141985.379377512</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>490512.9698224875</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>495668.0106224876</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>411727.0632224876</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>419757.3295224876</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>324077.9113224876</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>254909.2479224876</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>253909.2479224876</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>253919.2479224876</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>273578.5791224876</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>273589.5791224876</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>265856.7921224876</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>299277.1261224876</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>375816.1066224876</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>220500.4007167924</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>220510.4007167924</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2664664.194113879</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3534102.275813879</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3508843.59071388</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3790270.34611388</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3496958.67231388</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3753130.80921388</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>3585320.58271388</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>4056674.456674548</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>4112158.297574548</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>3674794.871274548</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>8998379.342270261</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>8474742.887970261</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>8353297.438470261</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>7788824.225770261</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>7918075.370770261</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>8059208.343370261</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>7674030.661270261</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>7571345.208270261</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>7767900.140170261</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7331879.574270261</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>7331899.574270261</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>7518932.994370261</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>7858421.701270261</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7728682.141370261</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7602486.501270261</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7591621.653570261</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7581609.76727026</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7394421.384570261</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7358801.896970261</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>8210454.291626227</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>8186632.715526227</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7674626.536026226</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7971093.809926227</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>9088981.084426226</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>9088919.134426227</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>9088879.184426228</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>9093711.806426227</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>9125917.222926227</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>9180354.698926229</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>14468617.44093925</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>14347897.46203925</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>14744273.09693593</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>14669124.47643593</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>14669135.47643593</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>14663869.44983593</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>14882116.65493593</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>14882076.70493593</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>15191095.21443594</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>10543700.28986147</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>10543711.28986147</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>10449109.99096147</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>10449159.99096147</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>10447904.16446147</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>10447330.36686147</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>10303979.99706147</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>11999712.35089552</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>13501255.61562269</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>13495797.04128779</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>13490608.6682878</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>13479135.9747878</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>13453559.4309878</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>13452646.00058779</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>13615306.42438779</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>13071095.11218779</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>13147895.83818779</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>13179804.12868779</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>13126701.19248779</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>13166258.80338779</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>13403138.71898779</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>13401206.41958779</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>13407672.41958779</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>13407439.41958779</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>13442864.88036478</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>13442996.88036478</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>13250223.04656478</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>13215459.27926478</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>13309045.74566478</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>13077846.11596478</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>13177526.41516478</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>13123021.54846478</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>13126351.02206478</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>12656203.64226478</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
